--- a/rawdata/Timetable2manual.xlsx
+++ b/rawdata/Timetable2manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holly\Desktop\rail_simulator\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B4F69F-F9FD-4DFA-9FAD-41DF9B7AE1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947D9BDE-22B3-41EF-80E9-6144FC774C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39810" yWindow="810" windowWidth="17280" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timetable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="283">
   <si>
     <t>ID</t>
   </si>
@@ -863,9 +863,6 @@
     <t>T3</t>
   </si>
   <si>
-    <t>T40</t>
-  </si>
-  <si>
     <t>T64</t>
   </si>
   <si>
@@ -873,12 +870,27 @@
   </si>
   <si>
     <t>maybe wait for 905 to leave</t>
+  </si>
+  <si>
+    <t>T36</t>
+  </si>
+  <si>
+    <t>TE1</t>
+  </si>
+  <si>
+    <t>TE36</t>
+  </si>
+  <si>
+    <t>TE57</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -902,7 +914,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -945,8 +957,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -969,11 +987,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -989,6 +1033,11 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1293,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O370"/>
+  <dimension ref="A1:O413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="O365" sqref="O365:O366"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="B421" sqref="B421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1674,7 +1723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>101</v>
       </c>
@@ -1697,7 +1746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>101</v>
       </c>
@@ -1720,7 +1769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>101</v>
       </c>
@@ -1743,7 +1792,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>102</v>
       </c>
@@ -1766,7 +1815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>102</v>
       </c>
@@ -1789,7 +1838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>102</v>
       </c>
@@ -1812,7 +1861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>102</v>
       </c>
@@ -1835,7 +1884,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>102</v>
       </c>
@@ -1851,14 +1900,14 @@
       <c r="E24" t="s">
         <v>24</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F24" s="14">
+        <v>60</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0.30763888888888891</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>102</v>
       </c>
@@ -1875,13 +1924,14 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>102</v>
       </c>
@@ -1904,7 +1954,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>102</v>
       </c>
@@ -1927,7 +1977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>102</v>
       </c>
@@ -1950,7 +2000,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>102</v>
       </c>
@@ -1973,7 +2023,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>102</v>
       </c>
@@ -1996,7 +2046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>102</v>
       </c>
@@ -2019,7 +2069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>102</v>
       </c>
@@ -8558,7 +8608,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B316" t="s">
         <v>23</v>
@@ -8581,7 +8631,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B317" t="s">
         <v>22</v>
@@ -8604,7 +8654,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B318" t="s">
         <v>21</v>
@@ -8627,7 +8677,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B319" t="s">
         <v>20</v>
@@ -8650,7 +8700,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B320" t="s">
         <v>19</v>
@@ -8673,7 +8723,7 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B321" t="s">
         <v>18</v>
@@ -8696,7 +8746,7 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B322" t="s">
         <v>17</v>
@@ -8719,7 +8769,7 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B323" t="s">
         <v>16</v>
@@ -8742,7 +8792,7 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B324" t="s">
         <v>15</v>
@@ -8765,7 +8815,7 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B325" t="s">
         <v>14</v>
@@ -8788,7 +8838,7 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B326" t="s">
         <v>13</v>
@@ -8811,7 +8861,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B327" t="s">
         <v>12</v>
@@ -8834,7 +8884,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B328" t="s">
         <v>11</v>
@@ -8857,7 +8907,7 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B329" t="s">
         <v>10</v>
@@ -8880,7 +8930,7 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B330" t="s">
         <v>9</v>
@@ -8903,7 +8953,7 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B331" t="s">
         <v>8</v>
@@ -8926,7 +8976,7 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B332" t="s">
         <v>7</v>
@@ -8949,7 +8999,7 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
@@ -9039,7 +9089,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>223</v>
       </c>
@@ -9062,7 +9112,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>223</v>
       </c>
@@ -9085,7 +9135,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>223</v>
       </c>
@@ -9108,7 +9158,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>223</v>
       </c>
@@ -9131,7 +9181,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>223</v>
       </c>
@@ -9154,7 +9204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>223</v>
       </c>
@@ -9177,7 +9227,7 @@
         <v>0.93125000000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>275</v>
       </c>
@@ -9199,11 +9249,8 @@
       <c r="G343" s="11">
         <v>0.26527777777777778</v>
       </c>
-      <c r="H343">
-        <v>22920</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>275</v>
       </c>
@@ -9225,11 +9272,8 @@
       <c r="G344" s="12">
         <v>0.27430555555555558</v>
       </c>
-      <c r="H344">
-        <v>23700</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>275</v>
       </c>
@@ -9251,11 +9295,8 @@
       <c r="G345" s="11">
         <v>0.28263888888888888</v>
       </c>
-      <c r="H345">
-        <v>24420</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>275</v>
       </c>
@@ -9277,11 +9318,8 @@
       <c r="G346" s="12">
         <v>0.30069444444444443</v>
       </c>
-      <c r="H346">
-        <v>25200</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>275</v>
       </c>
@@ -9303,11 +9341,8 @@
       <c r="G347" s="11">
         <v>0.31111111111111106</v>
       </c>
-      <c r="H347">
-        <v>26100</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>275</v>
       </c>
@@ -9329,11 +9364,8 @@
       <c r="G348" s="11">
         <v>0.31805555555555554</v>
       </c>
-      <c r="H348">
-        <v>26700</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>275</v>
       </c>
@@ -9355,13 +9387,10 @@
       <c r="G349" s="11">
         <v>0.3256944444444444</v>
       </c>
-      <c r="H349">
-        <v>27360</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
-        <v>276</v>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A350" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="B350" t="s">
         <v>13</v>
@@ -9379,15 +9408,12 @@
         <v>60</v>
       </c>
       <c r="G350" s="11">
-        <v>0.29097222222222224</v>
-      </c>
-      <c r="H350">
-        <v>25140</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
-        <v>276</v>
+        <v>0.28819444444444442</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A351" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="B351" t="s">
         <v>12</v>
@@ -9405,15 +9431,12 @@
         <v>60</v>
       </c>
       <c r="G351" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H351">
-        <v>25920</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
-        <v>276</v>
+        <v>0.29722222222222222</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A352" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="B352" t="s">
         <v>11</v>
@@ -9431,73 +9454,64 @@
         <v>60</v>
       </c>
       <c r="G352" s="12">
-        <v>0.30833333333333335</v>
-      </c>
-      <c r="H352">
-        <v>26640</v>
+        <v>0.30555555555555558</v>
       </c>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
-        <v>276</v>
-      </c>
-      <c r="B353" t="s">
+      <c r="A353" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B353" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C353">
+        <v>161739</v>
+      </c>
+      <c r="D353" t="s">
+        <v>24</v>
+      </c>
+      <c r="E353" t="s">
+        <v>24</v>
+      </c>
+      <c r="F353">
+        <v>60</v>
+      </c>
+      <c r="G353" s="12">
+        <v>0.30763888888888891</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A354" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B354" t="s">
         <v>9</v>
       </c>
-      <c r="C353">
+      <c r="C354">
         <v>175418</v>
       </c>
-      <c r="D353" t="s">
-        <v>24</v>
-      </c>
-      <c r="E353" t="s">
-        <v>24</v>
-      </c>
-      <c r="F353">
-        <v>60</v>
-      </c>
-      <c r="G353" s="11">
-        <v>0.31736111111111109</v>
-      </c>
-      <c r="H353">
-        <v>27420</v>
-      </c>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
-        <v>276</v>
-      </c>
-      <c r="B354" t="s">
+      <c r="D354" t="s">
+        <v>24</v>
+      </c>
+      <c r="E354" t="s">
+        <v>24</v>
+      </c>
+      <c r="F354">
+        <v>60</v>
+      </c>
+      <c r="G354" s="11">
+        <v>0.31597222222222227</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A355" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B355" t="s">
         <v>8</v>
       </c>
-      <c r="C354">
+      <c r="C355">
         <v>197546</v>
-      </c>
-      <c r="D354" t="s">
-        <v>25</v>
-      </c>
-      <c r="E354" t="s">
-        <v>24</v>
-      </c>
-      <c r="F354">
-        <v>60</v>
-      </c>
-      <c r="G354" s="11">
-        <v>0.32777777777777778</v>
-      </c>
-      <c r="H354">
-        <v>28320</v>
-      </c>
-    </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
-        <v>276</v>
-      </c>
-      <c r="B355" t="s">
-        <v>7</v>
-      </c>
-      <c r="C355">
-        <v>209617</v>
       </c>
       <c r="D355" t="s">
         <v>25</v>
@@ -9509,99 +9523,87 @@
         <v>60</v>
       </c>
       <c r="G355" s="11">
-        <v>0.3347222222222222</v>
-      </c>
-      <c r="H355">
-        <v>28920</v>
+        <v>0.32638888888888895</v>
       </c>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
-        <v>276</v>
+      <c r="A356" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="B356" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356">
+        <v>209617</v>
+      </c>
+      <c r="D356" t="s">
+        <v>25</v>
+      </c>
+      <c r="E356" t="s">
+        <v>24</v>
+      </c>
+      <c r="F356">
+        <v>60</v>
+      </c>
+      <c r="G356" s="11">
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A357" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B357" t="s">
         <v>6</v>
       </c>
-      <c r="C356">
+      <c r="C357">
         <v>220077</v>
       </c>
-      <c r="D356" t="s">
-        <v>24</v>
-      </c>
-      <c r="E356" t="s">
+      <c r="D357" t="s">
+        <v>24</v>
+      </c>
+      <c r="E357" t="s">
         <v>27</v>
       </c>
-      <c r="F356">
-        <v>0</v>
-      </c>
-      <c r="G356" s="11">
-        <v>0.34236111111111112</v>
-      </c>
-      <c r="H356">
-        <v>29580</v>
-      </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
-        <v>277</v>
-      </c>
-      <c r="B357" t="s">
-        <v>13</v>
-      </c>
-      <c r="C357">
-        <v>126558</v>
-      </c>
-      <c r="D357" t="s">
-        <v>24</v>
-      </c>
-      <c r="E357" t="s">
-        <v>26</v>
-      </c>
       <c r="F357">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G357" s="11">
-        <v>0.30763888888888891</v>
-      </c>
-      <c r="H357">
-        <v>26580</v>
+        <v>0.34097222222222223</v>
       </c>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B358" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C358">
-        <v>144261</v>
+        <v>126558</v>
       </c>
       <c r="D358" t="s">
         <v>24</v>
       </c>
       <c r="E358" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F358">
         <v>60</v>
       </c>
       <c r="G358" s="11">
-        <v>0.31666666666666665</v>
-      </c>
-      <c r="H358">
-        <v>27360</v>
+        <v>0.30763888888888891</v>
       </c>
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B359" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C359">
-        <v>161336.33499999999</v>
+        <v>144261</v>
       </c>
       <c r="D359" t="s">
         <v>24</v>
@@ -9613,21 +9615,18 @@
         <v>60</v>
       </c>
       <c r="G359" s="11">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="H359">
-        <v>28080</v>
+        <v>0.31666666666666665</v>
       </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B360" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C360">
-        <v>175418</v>
+        <v>161336.33499999999</v>
       </c>
       <c r="D360" t="s">
         <v>24</v>
@@ -9639,24 +9638,21 @@
         <v>60</v>
       </c>
       <c r="G360" s="11">
-        <v>0.33402777777777776</v>
-      </c>
-      <c r="H360">
-        <v>28860</v>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B361" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C361">
-        <v>197546</v>
+        <v>175418</v>
       </c>
       <c r="D361" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E361" t="s">
         <v>24</v>
@@ -9665,21 +9661,18 @@
         <v>60</v>
       </c>
       <c r="G361" s="11">
-        <v>0.34444444444444444</v>
-      </c>
-      <c r="H361">
-        <v>29760</v>
+        <v>0.33402777777777776</v>
       </c>
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B362" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C362">
-        <v>209617</v>
+        <v>197546</v>
       </c>
       <c r="D362" t="s">
         <v>25</v>
@@ -9691,128 +9684,113 @@
         <v>60</v>
       </c>
       <c r="G362" s="11">
-        <v>0.35138888888888886</v>
-      </c>
-      <c r="H362">
-        <v>30360</v>
+        <v>0.34444444444444444</v>
       </c>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B363" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C363">
-        <v>220077</v>
+        <v>209617</v>
       </c>
       <c r="D363" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E363" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F363">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G363" s="11">
-        <v>0.35902777777777778</v>
-      </c>
-      <c r="H363">
-        <v>31020</v>
+        <v>0.35138888888888886</v>
       </c>
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B364" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C364">
-        <v>126558</v>
+        <v>220077</v>
       </c>
       <c r="D364" t="s">
         <v>24</v>
       </c>
       <c r="E364" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F364">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G364" s="11">
-        <v>0.32569444444444445</v>
-      </c>
-      <c r="H364">
-        <v>28140</v>
+        <v>0.35902777777777778</v>
       </c>
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B365" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C365">
-        <v>144261</v>
+        <v>126558</v>
       </c>
       <c r="D365" t="s">
         <v>24</v>
       </c>
       <c r="E365" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F365">
         <v>60</v>
       </c>
       <c r="G365" s="11">
-        <v>0.3347222222222222</v>
-      </c>
-      <c r="H365">
-        <v>28920</v>
+        <v>0.32569444444444445</v>
       </c>
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
+        <v>277</v>
+      </c>
+      <c r="B366" t="s">
+        <v>12</v>
+      </c>
+      <c r="C366">
+        <v>144261</v>
+      </c>
+      <c r="D366" t="s">
+        <v>24</v>
+      </c>
+      <c r="E366" t="s">
+        <v>24</v>
+      </c>
+      <c r="F366">
+        <v>60</v>
+      </c>
+      <c r="G366" s="11">
+        <v>0.3347222222222222</v>
+      </c>
+      <c r="O366" t="s">
         <v>278</v>
-      </c>
-      <c r="B366" t="s">
-        <v>11</v>
-      </c>
-      <c r="C366">
-        <v>161336.33499999999</v>
-      </c>
-      <c r="D366" t="s">
-        <v>24</v>
-      </c>
-      <c r="E366" t="s">
-        <v>24</v>
-      </c>
-      <c r="F366">
-        <v>60</v>
-      </c>
-      <c r="G366" s="11">
-        <v>0.34305555555555556</v>
-      </c>
-      <c r="H366">
-        <v>29640</v>
-      </c>
-      <c r="O366" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B367" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C367">
-        <v>175418</v>
+        <v>161336.33499999999</v>
       </c>
       <c r="D367" t="s">
         <v>24</v>
@@ -9824,47 +9802,41 @@
         <v>60</v>
       </c>
       <c r="G367" s="11">
-        <v>0.35208333333333336</v>
-      </c>
-      <c r="H367">
-        <v>30420</v>
+        <v>0.34305555555555556</v>
       </c>
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B368" t="s">
+        <v>9</v>
+      </c>
+      <c r="C368">
+        <v>175418</v>
+      </c>
+      <c r="D368" t="s">
+        <v>24</v>
+      </c>
+      <c r="E368" t="s">
+        <v>24</v>
+      </c>
+      <c r="F368">
+        <v>60</v>
+      </c>
+      <c r="G368" s="11">
+        <v>0.35208333333333336</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>277</v>
+      </c>
+      <c r="B369" t="s">
         <v>8</v>
       </c>
-      <c r="C368">
+      <c r="C369">
         <v>197546</v>
-      </c>
-      <c r="D368" t="s">
-        <v>25</v>
-      </c>
-      <c r="E368" t="s">
-        <v>24</v>
-      </c>
-      <c r="F368">
-        <v>60</v>
-      </c>
-      <c r="G368" s="11">
-        <v>0.36249999999999999</v>
-      </c>
-      <c r="H368">
-        <v>31320</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
-        <v>278</v>
-      </c>
-      <c r="B369" t="s">
-        <v>7</v>
-      </c>
-      <c r="C369">
-        <v>209617</v>
       </c>
       <c r="D369" t="s">
         <v>25</v>
@@ -9876,36 +9848,998 @@
         <v>60</v>
       </c>
       <c r="G369" s="11">
+        <v>0.36249999999999999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>277</v>
+      </c>
+      <c r="B370" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370">
+        <v>209617</v>
+      </c>
+      <c r="D370" t="s">
+        <v>25</v>
+      </c>
+      <c r="E370" t="s">
+        <v>24</v>
+      </c>
+      <c r="F370">
+        <v>60</v>
+      </c>
+      <c r="G370" s="11">
         <v>0.36944444444444446</v>
       </c>
-      <c r="H369">
-        <v>31920</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
-        <v>278</v>
-      </c>
-      <c r="B370" t="s">
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>277</v>
+      </c>
+      <c r="B371" t="s">
         <v>6</v>
       </c>
-      <c r="C370">
+      <c r="C371">
         <v>220077</v>
       </c>
-      <c r="D370" t="s">
-        <v>24</v>
-      </c>
-      <c r="E370" t="s">
+      <c r="D371" t="s">
+        <v>24</v>
+      </c>
+      <c r="E371" t="s">
         <v>27</v>
       </c>
-      <c r="F370">
-        <v>0</v>
-      </c>
-      <c r="G370" s="11">
+      <c r="F371">
+        <v>0</v>
+      </c>
+      <c r="G371" s="11">
         <v>0.37708333333333333</v>
       </c>
-      <c r="H370">
-        <v>32580</v>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>280</v>
+      </c>
+      <c r="B373" t="s">
+        <v>6</v>
+      </c>
+      <c r="C373">
+        <v>220077</v>
+      </c>
+      <c r="D373" t="s">
+        <v>24</v>
+      </c>
+      <c r="E373" t="s">
+        <v>26</v>
+      </c>
+      <c r="F373">
+        <v>60</v>
+      </c>
+      <c r="G373" s="11">
+        <v>0.85972222222222139</v>
+      </c>
+      <c r="I373" s="17"/>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>280</v>
+      </c>
+      <c r="B374" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374">
+        <v>209617</v>
+      </c>
+      <c r="D374" t="s">
+        <v>25</v>
+      </c>
+      <c r="E374" t="s">
+        <v>24</v>
+      </c>
+      <c r="F374">
+        <v>60</v>
+      </c>
+      <c r="G374" s="11">
+        <v>0.86597222222222148</v>
+      </c>
+      <c r="I374" s="17"/>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>280</v>
+      </c>
+      <c r="B375" t="s">
+        <v>8</v>
+      </c>
+      <c r="C375">
+        <v>197546</v>
+      </c>
+      <c r="D375" t="s">
+        <v>25</v>
+      </c>
+      <c r="E375" t="s">
+        <v>24</v>
+      </c>
+      <c r="F375">
+        <v>60</v>
+      </c>
+      <c r="G375" s="11">
+        <v>0.87222222222222134</v>
+      </c>
+      <c r="I375" s="17"/>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>280</v>
+      </c>
+      <c r="B376" t="s">
+        <v>9</v>
+      </c>
+      <c r="C376">
+        <v>175418</v>
+      </c>
+      <c r="D376" t="s">
+        <v>24</v>
+      </c>
+      <c r="E376" t="s">
+        <v>24</v>
+      </c>
+      <c r="F376">
+        <v>60</v>
+      </c>
+      <c r="G376" s="11">
+        <v>0.88194444444444353</v>
+      </c>
+      <c r="I376" s="17"/>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>280</v>
+      </c>
+      <c r="B377" t="s">
+        <v>11</v>
+      </c>
+      <c r="C377">
+        <v>161336.33499999999</v>
+      </c>
+      <c r="D377" t="s">
+        <v>24</v>
+      </c>
+      <c r="E377" t="s">
+        <v>24</v>
+      </c>
+      <c r="F377">
+        <v>60</v>
+      </c>
+      <c r="G377" s="11">
+        <v>0.8895833333333325</v>
+      </c>
+      <c r="I377" s="17"/>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>280</v>
+      </c>
+      <c r="B378" t="s">
+        <v>12</v>
+      </c>
+      <c r="C378">
+        <v>144261</v>
+      </c>
+      <c r="D378" t="s">
+        <v>24</v>
+      </c>
+      <c r="E378" t="s">
+        <v>24</v>
+      </c>
+      <c r="F378">
+        <v>60</v>
+      </c>
+      <c r="G378" s="11">
+        <v>0.89722222222222126</v>
+      </c>
+      <c r="I378" s="17"/>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>280</v>
+      </c>
+      <c r="B379" t="s">
+        <v>13</v>
+      </c>
+      <c r="C379">
+        <v>126558</v>
+      </c>
+      <c r="D379" t="s">
+        <v>24</v>
+      </c>
+      <c r="E379" t="s">
+        <v>27</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379" s="11">
+        <v>0.90624999999999911</v>
+      </c>
+      <c r="I379" s="11"/>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>281</v>
+      </c>
+      <c r="B380" t="s">
+        <v>6</v>
+      </c>
+      <c r="C380">
+        <v>220077</v>
+      </c>
+      <c r="D380" t="s">
+        <v>24</v>
+      </c>
+      <c r="E380" t="s">
+        <v>26</v>
+      </c>
+      <c r="F380">
+        <v>60</v>
+      </c>
+      <c r="G380" s="17">
+        <v>0.87847222222221832</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>281</v>
+      </c>
+      <c r="B381" t="s">
+        <v>7</v>
+      </c>
+      <c r="C381">
+        <v>209617</v>
+      </c>
+      <c r="D381" t="s">
+        <v>25</v>
+      </c>
+      <c r="E381" t="s">
+        <v>24</v>
+      </c>
+      <c r="F381">
+        <v>60</v>
+      </c>
+      <c r="G381" s="17">
+        <v>0.8847222222222183</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>281</v>
+      </c>
+      <c r="B382" t="s">
+        <v>8</v>
+      </c>
+      <c r="C382">
+        <v>197546</v>
+      </c>
+      <c r="D382" t="s">
+        <v>25</v>
+      </c>
+      <c r="E382" t="s">
+        <v>24</v>
+      </c>
+      <c r="F382">
+        <v>60</v>
+      </c>
+      <c r="G382" s="17">
+        <v>0.89097222222221828</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>281</v>
+      </c>
+      <c r="B383" t="s">
+        <v>9</v>
+      </c>
+      <c r="C383">
+        <v>175418</v>
+      </c>
+      <c r="D383" t="s">
+        <v>24</v>
+      </c>
+      <c r="E383" t="s">
+        <v>24</v>
+      </c>
+      <c r="F383">
+        <v>60</v>
+      </c>
+      <c r="G383" s="17">
+        <v>0.90069444444444047</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>281</v>
+      </c>
+      <c r="B384" t="s">
+        <v>10</v>
+      </c>
+      <c r="C384">
+        <v>161739</v>
+      </c>
+      <c r="D384" t="s">
+        <v>24</v>
+      </c>
+      <c r="E384" t="s">
+        <v>24</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+      <c r="G384" s="17">
+        <v>0.90763888888888489</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>281</v>
+      </c>
+      <c r="B385" t="s">
+        <v>11</v>
+      </c>
+      <c r="C385">
+        <v>161336.33499999999</v>
+      </c>
+      <c r="D385" t="s">
+        <v>24</v>
+      </c>
+      <c r="E385" t="s">
+        <v>24</v>
+      </c>
+      <c r="F385">
+        <v>60</v>
+      </c>
+      <c r="G385" s="17">
+        <v>0.9097222222222181</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>281</v>
+      </c>
+      <c r="B386" t="s">
+        <v>12</v>
+      </c>
+      <c r="C386">
+        <v>144261</v>
+      </c>
+      <c r="D386" t="s">
+        <v>24</v>
+      </c>
+      <c r="E386" t="s">
+        <v>24</v>
+      </c>
+      <c r="F386">
+        <v>60</v>
+      </c>
+      <c r="G386" s="17">
+        <v>0.91736111111110707</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>281</v>
+      </c>
+      <c r="B387" t="s">
+        <v>13</v>
+      </c>
+      <c r="C387">
+        <v>126558</v>
+      </c>
+      <c r="D387" t="s">
+        <v>24</v>
+      </c>
+      <c r="E387" t="s">
+        <v>27</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387" s="17">
+        <v>0.92638888888888482</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>282</v>
+      </c>
+      <c r="B388" t="s">
+        <v>6</v>
+      </c>
+      <c r="C388">
+        <v>220077</v>
+      </c>
+      <c r="D388" t="s">
+        <v>24</v>
+      </c>
+      <c r="E388" t="s">
+        <v>26</v>
+      </c>
+      <c r="F388">
+        <v>60</v>
+      </c>
+      <c r="G388" s="17">
+        <v>0.89305555555554927</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>282</v>
+      </c>
+      <c r="B389" t="s">
+        <v>7</v>
+      </c>
+      <c r="C389">
+        <v>209617</v>
+      </c>
+      <c r="D389" t="s">
+        <v>25</v>
+      </c>
+      <c r="E389" t="s">
+        <v>24</v>
+      </c>
+      <c r="F389">
+        <v>60</v>
+      </c>
+      <c r="G389" s="17">
+        <v>0.89930555555554925</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>282</v>
+      </c>
+      <c r="B390" t="s">
+        <v>8</v>
+      </c>
+      <c r="C390">
+        <v>197546</v>
+      </c>
+      <c r="D390" t="s">
+        <v>25</v>
+      </c>
+      <c r="E390" t="s">
+        <v>24</v>
+      </c>
+      <c r="F390">
+        <v>60</v>
+      </c>
+      <c r="G390" s="17">
+        <v>0.90555555555554923</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>282</v>
+      </c>
+      <c r="B391" t="s">
+        <v>9</v>
+      </c>
+      <c r="C391">
+        <v>175418</v>
+      </c>
+      <c r="D391" t="s">
+        <v>24</v>
+      </c>
+      <c r="E391" t="s">
+        <v>24</v>
+      </c>
+      <c r="F391">
+        <v>60</v>
+      </c>
+      <c r="G391" s="17">
+        <v>0.91527777777777142</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>282</v>
+      </c>
+      <c r="B392" t="s">
+        <v>11</v>
+      </c>
+      <c r="C392">
+        <v>161336.33499999999</v>
+      </c>
+      <c r="D392" t="s">
+        <v>24</v>
+      </c>
+      <c r="E392" t="s">
+        <v>24</v>
+      </c>
+      <c r="F392">
+        <v>60</v>
+      </c>
+      <c r="G392" s="17">
+        <v>0.92222222222221584</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>282</v>
+      </c>
+      <c r="B393" t="s">
+        <v>12</v>
+      </c>
+      <c r="C393">
+        <v>144261</v>
+      </c>
+      <c r="D393" t="s">
+        <v>24</v>
+      </c>
+      <c r="E393" t="s">
+        <v>24</v>
+      </c>
+      <c r="F393">
+        <v>60</v>
+      </c>
+      <c r="G393" s="17">
+        <v>0.9298611111111047</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>282</v>
+      </c>
+      <c r="B394" t="s">
+        <v>13</v>
+      </c>
+      <c r="C394">
+        <v>126558</v>
+      </c>
+      <c r="D394" t="s">
+        <v>24</v>
+      </c>
+      <c r="E394" t="s">
+        <v>27</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+      <c r="G394" s="17">
+        <v>0.93749999999999356</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A400" s="3" t="str">
+        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <v>TA54</v>
+      </c>
+      <c r="B400" t="s">
+        <v>6</v>
+      </c>
+      <c r="C400">
+        <v>220077</v>
+      </c>
+      <c r="D400" t="s">
+        <v>24</v>
+      </c>
+      <c r="E400" t="s">
+        <v>26</v>
+      </c>
+      <c r="F400">
+        <v>60</v>
+      </c>
+      <c r="G400" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="H400">
+        <v>27240</v>
+      </c>
+      <c r="I400" s="17">
+        <v>6.2499999999999778E-3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A401" s="3" t="str">
+        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <v>TA54</v>
+      </c>
+      <c r="B401" t="s">
+        <v>7</v>
+      </c>
+      <c r="C401">
+        <v>209617</v>
+      </c>
+      <c r="D401" t="s">
+        <v>25</v>
+      </c>
+      <c r="E401" t="s">
+        <v>24</v>
+      </c>
+      <c r="F401">
+        <v>60</v>
+      </c>
+      <c r="G401" s="11">
+        <f>G400+I400</f>
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="H401">
+        <v>26580</v>
+      </c>
+      <c r="I401" s="17">
+        <v>6.2499999999999778E-3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A402" s="3" t="str">
+        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <v>TA54</v>
+      </c>
+      <c r="B402" t="s">
+        <v>8</v>
+      </c>
+      <c r="C402">
+        <v>197546</v>
+      </c>
+      <c r="D402" t="s">
+        <v>25</v>
+      </c>
+      <c r="E402" t="s">
+        <v>24</v>
+      </c>
+      <c r="F402">
+        <v>60</v>
+      </c>
+      <c r="G402" s="11">
+        <f>G401+I401</f>
+        <v>0.74861111111111112</v>
+      </c>
+      <c r="H402">
+        <v>25980</v>
+      </c>
+      <c r="I402" s="17">
+        <v>9.7222222222222432E-3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A403" s="3" t="str">
+        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <v>TA54</v>
+      </c>
+      <c r="B403" t="s">
+        <v>9</v>
+      </c>
+      <c r="C403">
+        <v>175418</v>
+      </c>
+      <c r="D403" t="s">
+        <v>24</v>
+      </c>
+      <c r="E403" t="s">
+        <v>24</v>
+      </c>
+      <c r="F403">
+        <v>60</v>
+      </c>
+      <c r="G403" s="11">
+        <f>G402+I402</f>
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="H403">
+        <v>25080</v>
+      </c>
+      <c r="I403" s="17">
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A404" s="3" t="str">
+        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <v>TA54</v>
+      </c>
+      <c r="B404" t="s">
+        <v>11</v>
+      </c>
+      <c r="C404">
+        <v>161336.33499999999</v>
+      </c>
+      <c r="D404" t="s">
+        <v>24</v>
+      </c>
+      <c r="E404" t="s">
+        <v>24</v>
+      </c>
+      <c r="F404">
+        <v>60</v>
+      </c>
+      <c r="G404" s="11">
+        <f>G403+I403</f>
+        <v>0.76527777777777772</v>
+      </c>
+      <c r="H404">
+        <v>24300</v>
+      </c>
+      <c r="I404" s="17">
+        <v>7.6388888888888618E-3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A405" s="3" t="str">
+        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <v>TA54</v>
+      </c>
+      <c r="B405" t="s">
+        <v>12</v>
+      </c>
+      <c r="C405">
+        <v>144261</v>
+      </c>
+      <c r="D405" t="s">
+        <v>24</v>
+      </c>
+      <c r="E405" t="s">
+        <v>24</v>
+      </c>
+      <c r="F405">
+        <v>60</v>
+      </c>
+      <c r="G405" s="11">
+        <f>G404+I404</f>
+        <v>0.77291666666666659</v>
+      </c>
+      <c r="H405">
+        <v>23580</v>
+      </c>
+      <c r="I405" s="17">
+        <v>7.6388888888889173E-3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A406" s="3" t="str">
+        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <v>TA54</v>
+      </c>
+      <c r="B406" t="s">
+        <v>13</v>
+      </c>
+      <c r="C406">
+        <v>126558</v>
+      </c>
+      <c r="D406" t="s">
+        <v>24</v>
+      </c>
+      <c r="E406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F406">
+        <v>0</v>
+      </c>
+      <c r="G406" s="11">
+        <f>G405+I405</f>
+        <v>0.78055555555555545</v>
+      </c>
+      <c r="H406">
+        <v>22800</v>
+      </c>
+      <c r="I406" s="17">
+        <v>9.0277777777777457E-3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A407" s="3" t="str">
+        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <v>TA55</v>
+      </c>
+      <c r="B407" t="s">
+        <v>6</v>
+      </c>
+      <c r="C407">
+        <v>220077</v>
+      </c>
+      <c r="D407" t="s">
+        <v>24</v>
+      </c>
+      <c r="E407" t="s">
+        <v>26</v>
+      </c>
+      <c r="F407">
+        <v>60</v>
+      </c>
+      <c r="G407" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H407">
+        <v>27240</v>
+      </c>
+      <c r="I407" s="17">
+        <v>6.2499999999999778E-3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A408" s="3" t="str">
+        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <v>TA55</v>
+      </c>
+      <c r="B408" t="s">
+        <v>7</v>
+      </c>
+      <c r="C408">
+        <v>209617</v>
+      </c>
+      <c r="D408" t="s">
+        <v>25</v>
+      </c>
+      <c r="E408" t="s">
+        <v>24</v>
+      </c>
+      <c r="F408">
+        <v>60</v>
+      </c>
+      <c r="G408" s="11">
+        <f>G407+I407</f>
+        <v>0.77708333333333335</v>
+      </c>
+      <c r="H408">
+        <v>26580</v>
+      </c>
+      <c r="I408" s="17">
+        <v>6.2499999999999778E-3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A409" s="3" t="str">
+        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <v>TA55</v>
+      </c>
+      <c r="B409" t="s">
+        <v>8</v>
+      </c>
+      <c r="C409">
+        <v>197546</v>
+      </c>
+      <c r="D409" t="s">
+        <v>25</v>
+      </c>
+      <c r="E409" t="s">
+        <v>24</v>
+      </c>
+      <c r="F409">
+        <v>60</v>
+      </c>
+      <c r="G409" s="11">
+        <f>G408+I408</f>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="H409">
+        <v>25980</v>
+      </c>
+      <c r="I409" s="17">
+        <v>9.7222222222222432E-3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A410" s="3" t="str">
+        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <v>TA55</v>
+      </c>
+      <c r="B410" t="s">
+        <v>9</v>
+      </c>
+      <c r="C410">
+        <v>175418</v>
+      </c>
+      <c r="D410" t="s">
+        <v>24</v>
+      </c>
+      <c r="E410" t="s">
+        <v>24</v>
+      </c>
+      <c r="F410">
+        <v>60</v>
+      </c>
+      <c r="G410" s="11">
+        <f>G409+I409</f>
+        <v>0.79305555555555562</v>
+      </c>
+      <c r="H410">
+        <v>25080</v>
+      </c>
+      <c r="I410" s="17">
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A411" s="3" t="str">
+        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <v>TA55</v>
+      </c>
+      <c r="B411" t="s">
+        <v>11</v>
+      </c>
+      <c r="C411">
+        <v>161336.33499999999</v>
+      </c>
+      <c r="D411" t="s">
+        <v>24</v>
+      </c>
+      <c r="E411" t="s">
+        <v>24</v>
+      </c>
+      <c r="F411">
+        <v>60</v>
+      </c>
+      <c r="G411" s="11">
+        <f>G410+I410</f>
+        <v>0.8</v>
+      </c>
+      <c r="H411">
+        <v>24300</v>
+      </c>
+      <c r="I411" s="17">
+        <v>7.6388888888888618E-3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A412" s="3" t="str">
+        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <v>TA55</v>
+      </c>
+      <c r="B412" t="s">
+        <v>12</v>
+      </c>
+      <c r="C412">
+        <v>144261</v>
+      </c>
+      <c r="D412" t="s">
+        <v>24</v>
+      </c>
+      <c r="E412" t="s">
+        <v>24</v>
+      </c>
+      <c r="F412">
+        <v>60</v>
+      </c>
+      <c r="G412" s="11">
+        <f>G411+I411</f>
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="H412">
+        <v>23580</v>
+      </c>
+      <c r="I412" s="17">
+        <v>7.6388888888889173E-3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A413" s="3" t="str">
+        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <v>TA55</v>
+      </c>
+      <c r="B413" t="s">
+        <v>13</v>
+      </c>
+      <c r="C413">
+        <v>126558</v>
+      </c>
+      <c r="D413" t="s">
+        <v>24</v>
+      </c>
+      <c r="E413" t="s">
+        <v>27</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+      <c r="G413" s="11">
+        <f>G412+I412</f>
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="H413">
+        <v>22800</v>
+      </c>
+      <c r="I413" s="17">
+        <v>9.0277777777777457E-3</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata/Timetable2manual.xlsx
+++ b/rawdata/Timetable2manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holly\Desktop\rail_simulator\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947D9BDE-22B3-41EF-80E9-6144FC774C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9146E557-2330-4295-B803-97460AA816B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39810" yWindow="810" windowWidth="17280" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timetable" sheetId="1" r:id="rId1"/>
@@ -889,7 +889,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -964,7 +964,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1013,11 +1013,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1038,6 +1053,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1344,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="B421" sqref="B421"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="G359" sqref="G359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9572,7 +9588,7 @@
         <v>0.34097222222222223</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>276</v>
       </c>
@@ -9595,7 +9611,7 @@
         <v>0.30763888888888891</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>276</v>
       </c>
@@ -9614,7 +9630,7 @@
       <c r="F359">
         <v>60</v>
       </c>
-      <c r="G359" s="11">
+      <c r="G359" s="18">
         <v>0.31666666666666665</v>
       </c>
     </row>
@@ -10412,7 +10428,7 @@
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="str">
-        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <f t="shared" ref="A400:A413" si="0" xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
         <v>TA54</v>
       </c>
       <c r="B400" t="s">
@@ -10442,7 +10458,7 @@
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="str">
-        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <f t="shared" si="0"/>
         <v>TA54</v>
       </c>
       <c r="B401" t="s">
@@ -10461,7 +10477,7 @@
         <v>60</v>
       </c>
       <c r="G401" s="11">
-        <f>G400+I400</f>
+        <f t="shared" ref="G401:G406" si="1">G400+I400</f>
         <v>0.74236111111111114</v>
       </c>
       <c r="H401">
@@ -10473,7 +10489,7 @@
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="str">
-        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <f t="shared" si="0"/>
         <v>TA54</v>
       </c>
       <c r="B402" t="s">
@@ -10492,7 +10508,7 @@
         <v>60</v>
       </c>
       <c r="G402" s="11">
-        <f>G401+I401</f>
+        <f t="shared" si="1"/>
         <v>0.74861111111111112</v>
       </c>
       <c r="H402">
@@ -10504,7 +10520,7 @@
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="str">
-        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <f t="shared" si="0"/>
         <v>TA54</v>
       </c>
       <c r="B403" t="s">
@@ -10523,7 +10539,7 @@
         <v>60</v>
       </c>
       <c r="G403" s="11">
-        <f>G402+I402</f>
+        <f t="shared" si="1"/>
         <v>0.7583333333333333</v>
       </c>
       <c r="H403">
@@ -10535,7 +10551,7 @@
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="str">
-        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <f t="shared" si="0"/>
         <v>TA54</v>
       </c>
       <c r="B404" t="s">
@@ -10554,7 +10570,7 @@
         <v>60</v>
       </c>
       <c r="G404" s="11">
-        <f>G403+I403</f>
+        <f t="shared" si="1"/>
         <v>0.76527777777777772</v>
       </c>
       <c r="H404">
@@ -10566,7 +10582,7 @@
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="str">
-        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <f t="shared" si="0"/>
         <v>TA54</v>
       </c>
       <c r="B405" t="s">
@@ -10585,7 +10601,7 @@
         <v>60</v>
       </c>
       <c r="G405" s="11">
-        <f>G404+I404</f>
+        <f t="shared" si="1"/>
         <v>0.77291666666666659</v>
       </c>
       <c r="H405">
@@ -10597,7 +10613,7 @@
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="str">
-        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <f t="shared" si="0"/>
         <v>TA54</v>
       </c>
       <c r="B406" t="s">
@@ -10616,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="G406" s="11">
-        <f>G405+I405</f>
+        <f t="shared" si="1"/>
         <v>0.78055555555555545</v>
       </c>
       <c r="H406">
@@ -10628,7 +10644,7 @@
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="str">
-        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <f t="shared" si="0"/>
         <v>TA55</v>
       </c>
       <c r="B407" t="s">
@@ -10658,7 +10674,7 @@
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="str">
-        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <f t="shared" si="0"/>
         <v>TA55</v>
       </c>
       <c r="B408" t="s">
@@ -10677,7 +10693,7 @@
         <v>60</v>
       </c>
       <c r="G408" s="11">
-        <f>G407+I407</f>
+        <f t="shared" ref="G408:G413" si="2">G407+I407</f>
         <v>0.77708333333333335</v>
       </c>
       <c r="H408">
@@ -10689,7 +10705,7 @@
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="str">
-        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <f t="shared" si="0"/>
         <v>TA55</v>
       </c>
       <c r="B409" t="s">
@@ -10708,7 +10724,7 @@
         <v>60</v>
       </c>
       <c r="G409" s="11">
-        <f>G408+I408</f>
+        <f t="shared" si="2"/>
         <v>0.78333333333333333</v>
       </c>
       <c r="H409">
@@ -10720,7 +10736,7 @@
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="str">
-        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <f t="shared" si="0"/>
         <v>TA55</v>
       </c>
       <c r="B410" t="s">
@@ -10739,7 +10755,7 @@
         <v>60</v>
       </c>
       <c r="G410" s="11">
-        <f>G409+I409</f>
+        <f t="shared" si="2"/>
         <v>0.79305555555555562</v>
       </c>
       <c r="H410">
@@ -10751,7 +10767,7 @@
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="str">
-        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <f t="shared" si="0"/>
         <v>TA55</v>
       </c>
       <c r="B411" t="s">
@@ -10770,7 +10786,7 @@
         <v>60</v>
       </c>
       <c r="G411" s="11">
-        <f>G410+I410</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="H411">
@@ -10782,7 +10798,7 @@
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="str">
-        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <f t="shared" si="0"/>
         <v>TA55</v>
       </c>
       <c r="B412" t="s">
@@ -10801,7 +10817,7 @@
         <v>60</v>
       </c>
       <c r="G412" s="11">
-        <f>G411+I411</f>
+        <f t="shared" si="2"/>
         <v>0.80763888888888891</v>
       </c>
       <c r="H412">
@@ -10813,7 +10829,7 @@
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="str">
-        <f xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
+        <f t="shared" si="0"/>
         <v>TA55</v>
       </c>
       <c r="B413" t="s">
@@ -10832,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="G413" s="11">
-        <f>G412+I412</f>
+        <f t="shared" si="2"/>
         <v>0.81527777777777777</v>
       </c>
       <c r="H413">

--- a/rawdata/Timetable2manual.xlsx
+++ b/rawdata/Timetable2manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holly\Desktop\rail_simulator\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9146E557-2330-4295-B803-97460AA816B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A5C235-BCB2-44BA-AF66-7244983DCEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1360,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="G359" sqref="G359"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="N166" sqref="N166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4959,7 +4959,7 @@
         <v>27</v>
       </c>
       <c r="F156">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G156" t="s">
         <v>149</v>

--- a/rawdata/Timetable2manual.xlsx
+++ b/rawdata/Timetable2manual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holly\Desktop\rail_simulator\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A5C235-BCB2-44BA-AF66-7244983DCEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428CF650-763B-43E2-BF17-017408AD40B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="285">
   <si>
     <t>ID</t>
   </si>
@@ -882,6 +882,12 @@
   </si>
   <si>
     <t>TE57</t>
+  </si>
+  <si>
+    <t>TA10</t>
+  </si>
+  <si>
+    <t>TA60</t>
   </si>
 </sst>
 </file>
@@ -1360,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="N166" sqref="N166"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="N392" sqref="N392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10427,9 +10433,8 @@
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A400" s="3" t="str">
-        <f t="shared" ref="A400:A413" si="0" xml:space="preserve"> "TA" &amp; INT((ROW()-288)/7)+38</f>
-        <v>TA54</v>
+      <c r="A400" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="B400" t="s">
         <v>6</v>
@@ -10457,9 +10462,8 @@
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A401" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TA54</v>
+      <c r="A401" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="B401" t="s">
         <v>7</v>
@@ -10477,7 +10481,7 @@
         <v>60</v>
       </c>
       <c r="G401" s="11">
-        <f t="shared" ref="G401:G406" si="1">G400+I400</f>
+        <f t="shared" ref="G401:G406" si="0">G400+I400</f>
         <v>0.74236111111111114</v>
       </c>
       <c r="H401">
@@ -10488,9 +10492,8 @@
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A402" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TA54</v>
+      <c r="A402" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="B402" t="s">
         <v>8</v>
@@ -10508,7 +10511,7 @@
         <v>60</v>
       </c>
       <c r="G402" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.74861111111111112</v>
       </c>
       <c r="H402">
@@ -10519,9 +10522,8 @@
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A403" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TA54</v>
+      <c r="A403" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="B403" t="s">
         <v>9</v>
@@ -10539,7 +10541,7 @@
         <v>60</v>
       </c>
       <c r="G403" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.7583333333333333</v>
       </c>
       <c r="H403">
@@ -10550,9 +10552,8 @@
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A404" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TA54</v>
+      <c r="A404" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="B404" t="s">
         <v>11</v>
@@ -10570,7 +10571,7 @@
         <v>60</v>
       </c>
       <c r="G404" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.76527777777777772</v>
       </c>
       <c r="H404">
@@ -10581,9 +10582,8 @@
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A405" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TA54</v>
+      <c r="A405" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="B405" t="s">
         <v>12</v>
@@ -10601,7 +10601,7 @@
         <v>60</v>
       </c>
       <c r="G405" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.77291666666666659</v>
       </c>
       <c r="H405">
@@ -10612,9 +10612,8 @@
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A406" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TA54</v>
+      <c r="A406" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="B406" t="s">
         <v>13</v>
@@ -10632,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="G406" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.78055555555555545</v>
       </c>
       <c r="H406">
@@ -10643,9 +10642,8 @@
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A407" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TA55</v>
+      <c r="A407" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B407" t="s">
         <v>6</v>
@@ -10673,9 +10671,8 @@
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A408" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TA55</v>
+      <c r="A408" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B408" t="s">
         <v>7</v>
@@ -10693,7 +10690,7 @@
         <v>60</v>
       </c>
       <c r="G408" s="11">
-        <f t="shared" ref="G408:G413" si="2">G407+I407</f>
+        <f t="shared" ref="G408:G413" si="1">G407+I407</f>
         <v>0.77708333333333335</v>
       </c>
       <c r="H408">
@@ -10704,9 +10701,8 @@
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A409" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TA55</v>
+      <c r="A409" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B409" t="s">
         <v>8</v>
@@ -10724,7 +10720,7 @@
         <v>60</v>
       </c>
       <c r="G409" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.78333333333333333</v>
       </c>
       <c r="H409">
@@ -10735,9 +10731,8 @@
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A410" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TA55</v>
+      <c r="A410" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B410" t="s">
         <v>9</v>
@@ -10755,7 +10750,7 @@
         <v>60</v>
       </c>
       <c r="G410" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.79305555555555562</v>
       </c>
       <c r="H410">
@@ -10766,9 +10761,8 @@
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A411" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TA55</v>
+      <c r="A411" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B411" t="s">
         <v>11</v>
@@ -10786,7 +10780,7 @@
         <v>60</v>
       </c>
       <c r="G411" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="H411">
@@ -10797,9 +10791,8 @@
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A412" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TA55</v>
+      <c r="A412" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B412" t="s">
         <v>12</v>
@@ -10817,7 +10810,7 @@
         <v>60</v>
       </c>
       <c r="G412" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.80763888888888891</v>
       </c>
       <c r="H412">
@@ -10828,9 +10821,8 @@
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A413" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TA55</v>
+      <c r="A413" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B413" t="s">
         <v>13</v>
@@ -10848,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="G413" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.81527777777777777</v>
       </c>
       <c r="H413">
